--- a/Resource/Parts1.xlsx
+++ b/Resource/Parts1.xlsx
@@ -675,8 +675,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="15.940625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.150625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/Resource/Parts1.xlsx
+++ b/Resource/Parts1.xlsx
@@ -684,7 +684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="n">
-        <x:v>10000</x:v>
+        <x:v>9999</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Resource/Parts1.xlsx
+++ b/Resource/Parts1.xlsx
@@ -684,7 +684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="n">
-        <x:v>9999</x:v>
+        <x:v>9993</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
